--- a/Hello/ExcelTest.xlsx
+++ b/Hello/ExcelTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlittlejohn/git/Learn-Git/Hello/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E19F5A-0520-6A49-A485-4BFA8EAF6F8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD68204-B616-D947-B2EC-2EB81F0787FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{0AFA7207-7E9D-6A41-B5A3-34CF6684A5E0}"/>
   </bookViews>
@@ -31,9 +31,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="13">
   <si>
     <t>653Drew</t>
+  </si>
+  <si>
+    <t>sdfasdfs</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>fsd</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sdfs</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>dfs</t>
   </si>
 </sst>
 </file>
@@ -385,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE725C7-DF1A-4243-B992-EE5E41B919B4}">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,164 +509,239 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="O47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="N51" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Hello/ExcelTest.xlsx
+++ b/Hello/ExcelTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlittlejohn/git/Learn-Git/Hello/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD68204-B616-D947-B2EC-2EB81F0787FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E19F5A-0520-6A49-A485-4BFA8EAF6F8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{0AFA7207-7E9D-6A41-B5A3-34CF6684A5E0}"/>
   </bookViews>
@@ -31,45 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="1">
   <si>
     <t>653Drew</t>
-  </si>
-  <si>
-    <t>sdfasdfs</t>
-  </si>
-  <si>
-    <t>sdfsd</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>fsd</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>sdfs</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>dfs</t>
   </si>
 </sst>
 </file>
@@ -421,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE725C7-DF1A-4243-B992-EE5E41B919B4}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,239 +473,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
-      <c r="K32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="H42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
-      <c r="M43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
-      <c r="F44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
-      <c r="J45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
-      <c r="O47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E49" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="O50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="N51" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
